--- a/data/pca/factorExposure/factorExposure_2011-09-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-09-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +732,60 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.02216662508591864</v>
+        <v>0.01761290201016362</v>
       </c>
       <c r="C2">
-        <v>-0.0167052822700004</v>
+        <v>-0.008871868969868092</v>
       </c>
       <c r="D2">
-        <v>0.0442524487761312</v>
+        <v>0.03318863121607034</v>
       </c>
       <c r="E2">
-        <v>-0.06739749335629411</v>
+        <v>0.03604928166410115</v>
       </c>
       <c r="F2">
-        <v>0.005837255333817816</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.02886793774486776</v>
+      </c>
+      <c r="G2">
+        <v>0.003482937001451753</v>
+      </c>
+      <c r="H2">
+        <v>0.0185795637082292</v>
+      </c>
+      <c r="I2">
+        <v>-0.01695310190927233</v>
+      </c>
+      <c r="J2">
+        <v>0.053173125090668</v>
+      </c>
+      <c r="K2">
+        <v>0.06494803844894671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +802,60 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.07918362107844462</v>
+        <v>0.09454379611698892</v>
       </c>
       <c r="C4">
-        <v>-0.04760260151645371</v>
+        <v>-0.05021413102870357</v>
       </c>
       <c r="D4">
-        <v>0.05015506602521755</v>
+        <v>0.03707368573919721</v>
       </c>
       <c r="E4">
-        <v>-0.01345473904588566</v>
+        <v>0.01612551481945419</v>
       </c>
       <c r="F4">
-        <v>-0.01500796349325228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.07434536334196572</v>
+      </c>
+      <c r="G4">
+        <v>0.02045223933158133</v>
+      </c>
+      <c r="H4">
+        <v>0.00660109656911703</v>
+      </c>
+      <c r="I4">
+        <v>0.07561589315781772</v>
+      </c>
+      <c r="J4">
+        <v>-0.01889740144471326</v>
+      </c>
+      <c r="K4">
+        <v>-0.04768604151763684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +872,410 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.12194848598056</v>
+        <v>0.1320075184561473</v>
       </c>
       <c r="C6">
-        <v>0.004193185267499785</v>
+        <v>-0.007244076235760228</v>
       </c>
       <c r="D6">
-        <v>0.04726691569891135</v>
+        <v>0.07057220177732451</v>
       </c>
       <c r="E6">
-        <v>-0.07498993576596603</v>
+        <v>0.01800829864958714</v>
       </c>
       <c r="F6">
-        <v>-0.05017871421708264</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.03321565182835259</v>
+      </c>
+      <c r="G6">
+        <v>0.07723877292157404</v>
+      </c>
+      <c r="H6">
+        <v>-0.193972941754521</v>
+      </c>
+      <c r="I6">
+        <v>0.06275346897729712</v>
+      </c>
+      <c r="J6">
+        <v>-0.4431172243142146</v>
+      </c>
+      <c r="K6">
+        <v>-0.0216497368822328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.07329614728124127</v>
+        <v>0.07195202543249561</v>
       </c>
       <c r="C7">
-        <v>-0.01600868235563572</v>
+        <v>-0.05124663670164088</v>
       </c>
       <c r="D7">
-        <v>0.05925680479510975</v>
+        <v>0.05301696626941232</v>
       </c>
       <c r="E7">
-        <v>-0.05397677253989405</v>
+        <v>0.02411957573898117</v>
       </c>
       <c r="F7">
-        <v>0.01229483324871833</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.0293503699586845</v>
+      </c>
+      <c r="G7">
+        <v>-0.01577855229315723</v>
+      </c>
+      <c r="H7">
+        <v>0.001071322980273163</v>
+      </c>
+      <c r="I7">
+        <v>0.03300477414673353</v>
+      </c>
+      <c r="J7">
+        <v>0.06205820488952597</v>
+      </c>
+      <c r="K7">
+        <v>-0.06978554251120729</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.03815032789969938</v>
+        <v>0.04093566815626766</v>
       </c>
       <c r="C8">
-        <v>-0.04895015960666322</v>
+        <v>-0.02197722414144339</v>
       </c>
       <c r="D8">
-        <v>-0.01009730859878789</v>
+        <v>-0.006337913488060061</v>
       </c>
       <c r="E8">
-        <v>-0.05781096537898976</v>
+        <v>0.06191077351149579</v>
       </c>
       <c r="F8">
-        <v>-0.03825177357428944</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.04627993963409566</v>
+      </c>
+      <c r="G8">
+        <v>0.04820787854886319</v>
+      </c>
+      <c r="H8">
+        <v>-0.01246842089460153</v>
+      </c>
+      <c r="I8">
+        <v>0.1090726535272948</v>
+      </c>
+      <c r="J8">
+        <v>0.001566564003495285</v>
+      </c>
+      <c r="K8">
+        <v>-0.03779578193403428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.07866706089170279</v>
+        <v>0.08663939784428021</v>
       </c>
       <c r="C9">
-        <v>-0.05754565055882828</v>
+        <v>-0.05158789335519403</v>
       </c>
       <c r="D9">
-        <v>0.04520502705476498</v>
+        <v>0.03670629701093369</v>
       </c>
       <c r="E9">
-        <v>-0.01977768593824692</v>
+        <v>0.0118904468954891</v>
       </c>
       <c r="F9">
-        <v>-0.01225720252576579</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.05868524845408766</v>
+      </c>
+      <c r="G9">
+        <v>0.0321863867029296</v>
+      </c>
+      <c r="H9">
+        <v>0.009177809424583195</v>
+      </c>
+      <c r="I9">
+        <v>0.09184730492992596</v>
+      </c>
+      <c r="J9">
+        <v>-0.01552597168272748</v>
+      </c>
+      <c r="K9">
+        <v>-0.02727947321378437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.01526816919503292</v>
+        <v>0.06933274757764389</v>
       </c>
       <c r="C10">
-        <v>0.1647620896573704</v>
+        <v>0.1981054857092777</v>
       </c>
       <c r="D10">
-        <v>-0.003998462203399106</v>
+        <v>0.02662741130447983</v>
       </c>
       <c r="E10">
-        <v>-0.07801495729160267</v>
+        <v>0.04185410823054147</v>
       </c>
       <c r="F10">
-        <v>-0.04844335137183878</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.02990025354925039</v>
+      </c>
+      <c r="G10">
+        <v>-0.04028007701772863</v>
+      </c>
+      <c r="H10">
+        <v>-0.02132576104568532</v>
+      </c>
+      <c r="I10">
+        <v>-0.02824762544732418</v>
+      </c>
+      <c r="J10">
+        <v>0.008666875796777869</v>
+      </c>
+      <c r="K10">
+        <v>0.01410063930789925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.07182894703584504</v>
+        <v>0.07419565339833957</v>
       </c>
       <c r="C11">
-        <v>-0.06042384272416527</v>
+        <v>-0.05970089860521464</v>
       </c>
       <c r="D11">
-        <v>0.03477095318450221</v>
+        <v>0.03230079743104568</v>
       </c>
       <c r="E11">
-        <v>-0.03648078694450787</v>
+        <v>0.01889359000405831</v>
       </c>
       <c r="F11">
-        <v>0.01138512663096299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.02474114656346341</v>
+      </c>
+      <c r="G11">
+        <v>0.05247614977052501</v>
+      </c>
+      <c r="H11">
+        <v>0.03106214797920291</v>
+      </c>
+      <c r="I11">
+        <v>0.07621939042614993</v>
+      </c>
+      <c r="J11">
+        <v>0.05546106108274957</v>
+      </c>
+      <c r="K11">
+        <v>0.04692954062758577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.07001400140266445</v>
+        <v>0.07318298777587851</v>
       </c>
       <c r="C12">
-        <v>-0.0456601639230711</v>
+        <v>-0.04845383399958991</v>
       </c>
       <c r="D12">
-        <v>0.04209032687443121</v>
+        <v>0.02803423361432973</v>
       </c>
       <c r="E12">
-        <v>-0.03033007503894341</v>
+        <v>0.01114433965003781</v>
       </c>
       <c r="F12">
-        <v>0.002649681372995034</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.03664443629829647</v>
+      </c>
+      <c r="G12">
+        <v>0.03961610846502735</v>
+      </c>
+      <c r="H12">
+        <v>0.007095004543645459</v>
+      </c>
+      <c r="I12">
+        <v>0.09132577078511399</v>
+      </c>
+      <c r="J12">
+        <v>0.06077431333168361</v>
+      </c>
+      <c r="K12">
+        <v>0.02336136349024476</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.08192697034097553</v>
+        <v>0.06949926328032212</v>
       </c>
       <c r="C13">
-        <v>-0.03078312951598653</v>
+        <v>-0.03768470577963771</v>
       </c>
       <c r="D13">
-        <v>0.02708562097092094</v>
+        <v>-0.01362983733967049</v>
       </c>
       <c r="E13">
-        <v>-0.01931850149222817</v>
+        <v>0.01433275881157383</v>
       </c>
       <c r="F13">
-        <v>0.0007449532893987925</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.04829772214724398</v>
+      </c>
+      <c r="G13">
+        <v>0.003144984659443135</v>
+      </c>
+      <c r="H13">
+        <v>0.004663418335102393</v>
+      </c>
+      <c r="I13">
+        <v>0.06844147842427466</v>
+      </c>
+      <c r="J13">
+        <v>0.05771123662147853</v>
+      </c>
+      <c r="K13">
+        <v>-0.1077588738899786</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.03625918630890146</v>
+        <v>0.04480787449439257</v>
       </c>
       <c r="C14">
-        <v>0.008050617822161828</v>
+        <v>-0.00860366637844997</v>
       </c>
       <c r="D14">
-        <v>0.03312489947188395</v>
+        <v>0.03616895584510459</v>
       </c>
       <c r="E14">
-        <v>-0.01048843163852588</v>
+        <v>-0.0007754724711701593</v>
       </c>
       <c r="F14">
-        <v>-0.01412651648792308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.0284620843045617</v>
+      </c>
+      <c r="G14">
+        <v>0.02012993999652205</v>
+      </c>
+      <c r="H14">
+        <v>0.05084011800757683</v>
+      </c>
+      <c r="I14">
+        <v>0.06919168298573128</v>
+      </c>
+      <c r="J14">
+        <v>-0.02519884507651562</v>
+      </c>
+      <c r="K14">
+        <v>-0.04522370351529584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.0567998968143972</v>
+        <v>0.04413398435145607</v>
       </c>
       <c r="C15">
-        <v>-0.01544248241546124</v>
+        <v>-0.01575534755069942</v>
       </c>
       <c r="D15">
-        <v>0.01007602876897556</v>
+        <v>-0.009986927410700647</v>
       </c>
       <c r="E15">
-        <v>-0.007877329690420076</v>
+        <v>-0.005207020106757654</v>
       </c>
       <c r="F15">
-        <v>-0.02547324644892665</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.03380830807941671</v>
+      </c>
+      <c r="G15">
+        <v>-0.0002144073873622801</v>
+      </c>
+      <c r="H15">
+        <v>0.002461883964562425</v>
+      </c>
+      <c r="I15">
+        <v>0.03521925954482347</v>
+      </c>
+      <c r="J15">
+        <v>-0.03443047411570335</v>
+      </c>
+      <c r="K15">
+        <v>-0.07608033312054287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.06324502471576705</v>
+        <v>0.07512531737080112</v>
       </c>
       <c r="C16">
-        <v>-0.05960734269792811</v>
+        <v>-0.05933607664268569</v>
       </c>
       <c r="D16">
-        <v>0.03877128127858189</v>
+        <v>0.03396241589747021</v>
       </c>
       <c r="E16">
-        <v>-0.02587829383308429</v>
+        <v>0.01036750482918279</v>
       </c>
       <c r="F16">
-        <v>-0.01077350183138619</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.03837314264333256</v>
+      </c>
+      <c r="G16">
+        <v>0.0310733961656273</v>
+      </c>
+      <c r="H16">
+        <v>0.02465920974496804</v>
+      </c>
+      <c r="I16">
+        <v>0.06204679065224687</v>
+      </c>
+      <c r="J16">
+        <v>0.03946794832990561</v>
+      </c>
+      <c r="K16">
+        <v>0.02850484602942032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1292,25 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1327,25 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1362,270 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.06718886928326287</v>
+        <v>0.06140282842830999</v>
       </c>
       <c r="C20">
-        <v>-0.05078974503991478</v>
+        <v>-0.03738074460036361</v>
       </c>
       <c r="D20">
-        <v>0.01696139846225529</v>
+        <v>0.01163906496666226</v>
       </c>
       <c r="E20">
-        <v>-0.02667431182747518</v>
+        <v>0.01491178651090821</v>
       </c>
       <c r="F20">
-        <v>-0.001473651224500969</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01129933859870596</v>
+      </c>
+      <c r="G20">
+        <v>0.0231710897975682</v>
+      </c>
+      <c r="H20">
+        <v>0.02802157215850352</v>
+      </c>
+      <c r="I20">
+        <v>0.1225956100818906</v>
+      </c>
+      <c r="J20">
+        <v>0.02898738187442747</v>
+      </c>
+      <c r="K20">
+        <v>-0.04272927256475305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.03858233177298355</v>
+        <v>0.03049319215225901</v>
       </c>
       <c r="C21">
-        <v>-0.02238693165379515</v>
+        <v>-0.0256365681678065</v>
       </c>
       <c r="D21">
-        <v>-0.02447041695670549</v>
+        <v>-0.03487093493902329</v>
       </c>
       <c r="E21">
-        <v>-0.0129921718713338</v>
+        <v>0.006233290525515687</v>
       </c>
       <c r="F21">
-        <v>-0.04931987760355593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.02384545894874103</v>
+      </c>
+      <c r="G21">
+        <v>-0.0009588628786298931</v>
+      </c>
+      <c r="H21">
+        <v>-0.06815916265043769</v>
+      </c>
+      <c r="I21">
+        <v>0.04327968412177993</v>
+      </c>
+      <c r="J21">
+        <v>-0.03200214579069215</v>
+      </c>
+      <c r="K21">
+        <v>-0.06129260673394553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.1196657720556293</v>
+        <v>0.09491800148649224</v>
       </c>
       <c r="C22">
-        <v>-0.1120236955525312</v>
+        <v>-0.06713214929812632</v>
       </c>
       <c r="D22">
-        <v>-0.01747318457060892</v>
+        <v>-0.2698315528747156</v>
       </c>
       <c r="E22">
-        <v>-0.003012340772736282</v>
+        <v>0.02808390167731327</v>
       </c>
       <c r="F22">
-        <v>-0.3671325087888804</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.4762605254616696</v>
+      </c>
+      <c r="G22">
+        <v>-0.2898271971800813</v>
+      </c>
+      <c r="H22">
+        <v>-0.07159255556452294</v>
+      </c>
+      <c r="I22">
+        <v>-0.2469200892305101</v>
+      </c>
+      <c r="J22">
+        <v>-0.003676786781285918</v>
+      </c>
+      <c r="K22">
+        <v>0.04796112228143699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.1206616150312062</v>
+        <v>0.0958722712950056</v>
       </c>
       <c r="C23">
-        <v>-0.1112498879688654</v>
+        <v>-0.06737799396309561</v>
       </c>
       <c r="D23">
-        <v>-0.01554412804698042</v>
+        <v>-0.2691544930529035</v>
       </c>
       <c r="E23">
-        <v>-0.003907886313437325</v>
+        <v>0.02846943172466692</v>
       </c>
       <c r="F23">
-        <v>-0.3695688294017305</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.4810840073693389</v>
+      </c>
+      <c r="G23">
+        <v>-0.2854687797479522</v>
+      </c>
+      <c r="H23">
+        <v>-0.06963146767455575</v>
+      </c>
+      <c r="I23">
+        <v>-0.2469702562221404</v>
+      </c>
+      <c r="J23">
+        <v>-0.009799951918547562</v>
+      </c>
+      <c r="K23">
+        <v>0.04853241725761455</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.08359827065659267</v>
+        <v>0.08404988947760868</v>
       </c>
       <c r="C24">
-        <v>-0.05762591922044933</v>
+        <v>-0.05677321824550049</v>
       </c>
       <c r="D24">
-        <v>0.03297237429646645</v>
+        <v>0.02477475258913972</v>
       </c>
       <c r="E24">
-        <v>-0.04020611193691535</v>
+        <v>0.0211751702460263</v>
       </c>
       <c r="F24">
-        <v>-0.01744844691066807</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.04312222525507765</v>
+      </c>
+      <c r="G24">
+        <v>0.05111131328135551</v>
+      </c>
+      <c r="H24">
+        <v>0.01051119708681426</v>
+      </c>
+      <c r="I24">
+        <v>0.07993794506143778</v>
+      </c>
+      <c r="J24">
+        <v>0.03382435361804675</v>
+      </c>
+      <c r="K24">
+        <v>0.03594492505205912</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.0802067912638831</v>
+        <v>0.0784726362173712</v>
       </c>
       <c r="C25">
-        <v>-0.04864028530545863</v>
+        <v>-0.04624797431837507</v>
       </c>
       <c r="D25">
-        <v>0.04943325806450471</v>
+        <v>0.03585320447968848</v>
       </c>
       <c r="E25">
-        <v>-0.04784681437832106</v>
+        <v>0.01373542318616841</v>
       </c>
       <c r="F25">
-        <v>-0.02622682666805512</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.04935918227968499</v>
+      </c>
+      <c r="G25">
+        <v>0.03938435375540209</v>
+      </c>
+      <c r="H25">
+        <v>0.02216861105357187</v>
+      </c>
+      <c r="I25">
+        <v>0.09318274388884441</v>
+      </c>
+      <c r="J25">
+        <v>0.04174255019231383</v>
+      </c>
+      <c r="K25">
+        <v>0.0472361505033383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.05239980033004542</v>
+        <v>0.04674016144202188</v>
       </c>
       <c r="C26">
-        <v>-0.01174395664729383</v>
+        <v>-0.02361155596051741</v>
       </c>
       <c r="D26">
-        <v>-0.0005214260612494064</v>
+        <v>-0.01415620773863619</v>
       </c>
       <c r="E26">
-        <v>-0.03598962013181783</v>
+        <v>0.008249176506397829</v>
       </c>
       <c r="F26">
-        <v>0.02007415641245107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.02086514327587451</v>
+      </c>
+      <c r="G26">
+        <v>0.01124307172648833</v>
+      </c>
+      <c r="H26">
+        <v>0.02384962959651747</v>
+      </c>
+      <c r="I26">
+        <v>0.03798944591483151</v>
+      </c>
+      <c r="J26">
+        <v>-0.01179762182293688</v>
+      </c>
+      <c r="K26">
+        <v>-0.1248544020351613</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1642,340 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.0466910008375129</v>
+        <v>0.08749896061890194</v>
       </c>
       <c r="C28">
-        <v>0.2982548946436974</v>
+        <v>0.2967898587524907</v>
       </c>
       <c r="D28">
-        <v>-0.009204124705924757</v>
+        <v>-0.006377857409312672</v>
       </c>
       <c r="E28">
-        <v>-0.07822916267159973</v>
+        <v>0.02405534895186974</v>
       </c>
       <c r="F28">
-        <v>-0.002367677341115192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.01350310449229914</v>
+      </c>
+      <c r="G28">
+        <v>0.01254695062427838</v>
+      </c>
+      <c r="H28">
+        <v>-0.04000459745021136</v>
+      </c>
+      <c r="I28">
+        <v>-0.03050768746319614</v>
+      </c>
+      <c r="J28">
+        <v>0.003183046974122932</v>
+      </c>
+      <c r="K28">
+        <v>-0.05633867359874146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.05848723107721707</v>
+        <v>0.05471752276584158</v>
       </c>
       <c r="C29">
-        <v>0.001967211265590161</v>
+        <v>-0.01147217843382629</v>
       </c>
       <c r="D29">
-        <v>0.02962855373639561</v>
+        <v>0.02306301819825666</v>
       </c>
       <c r="E29">
-        <v>-0.02329988341379541</v>
+        <v>0.01539861553885417</v>
       </c>
       <c r="F29">
-        <v>-0.02673849531026764</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03491001082004934</v>
+      </c>
+      <c r="G29">
+        <v>0.0160424163996887</v>
+      </c>
+      <c r="H29">
+        <v>0.06395077721470306</v>
+      </c>
+      <c r="I29">
+        <v>0.04936817266686443</v>
+      </c>
+      <c r="J29">
+        <v>-0.01293997620747617</v>
+      </c>
+      <c r="K29">
+        <v>-0.04132796794977166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.1507947998517906</v>
+        <v>0.1303922607604418</v>
       </c>
       <c r="C30">
-        <v>-0.06354575240236263</v>
+        <v>-0.05371284524143505</v>
       </c>
       <c r="D30">
-        <v>0.06984355888355402</v>
+        <v>0.02592650374321573</v>
       </c>
       <c r="E30">
-        <v>-0.05767771499963489</v>
+        <v>0.02737713469674082</v>
       </c>
       <c r="F30">
-        <v>-0.03311739734693926</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1189320037781427</v>
+      </c>
+      <c r="G30">
+        <v>0.06129224413637385</v>
+      </c>
+      <c r="H30">
+        <v>-0.08195937887749849</v>
+      </c>
+      <c r="I30">
+        <v>0.2531363594134902</v>
+      </c>
+      <c r="J30">
+        <v>0.160836478437897</v>
+      </c>
+      <c r="K30">
+        <v>-0.2585624980156754</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.05952703023017887</v>
+        <v>0.04817551570775376</v>
       </c>
       <c r="C31">
-        <v>-0.01643180065252686</v>
+        <v>-0.03598454513159382</v>
       </c>
       <c r="D31">
-        <v>0.02842668951359831</v>
+        <v>0.00710618225027974</v>
       </c>
       <c r="E31">
-        <v>-0.003721778814104219</v>
+        <v>-0.007819186765685463</v>
       </c>
       <c r="F31">
-        <v>0.01024547073215072</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01795822779174756</v>
+      </c>
+      <c r="G31">
+        <v>-0.01271690222223776</v>
+      </c>
+      <c r="H31">
+        <v>0.05184694554232949</v>
+      </c>
+      <c r="I31">
+        <v>0.04696541046360858</v>
+      </c>
+      <c r="J31">
+        <v>-0.01845709965371735</v>
+      </c>
+      <c r="K31">
+        <v>-0.0226586026470488</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.04694573673998131</v>
+        <v>0.05120387473721636</v>
       </c>
       <c r="C32">
-        <v>-0.008411317748557069</v>
+        <v>0.005873478279712845</v>
       </c>
       <c r="D32">
-        <v>0.01375856974206634</v>
+        <v>-0.01914023417964869</v>
       </c>
       <c r="E32">
-        <v>0.005094551734068601</v>
+        <v>-0.01138242530690615</v>
       </c>
       <c r="F32">
-        <v>-0.04935293793154644</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.07452994620579717</v>
+      </c>
+      <c r="G32">
+        <v>-0.01222328964344812</v>
+      </c>
+      <c r="H32">
+        <v>-0.00415888290463461</v>
+      </c>
+      <c r="I32">
+        <v>-0.03328252054110648</v>
+      </c>
+      <c r="J32">
+        <v>0.06356368771820112</v>
+      </c>
+      <c r="K32">
+        <v>-0.1219799772925309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.102499232384643</v>
+        <v>0.1059398920247169</v>
       </c>
       <c r="C33">
-        <v>-0.02748494204997691</v>
+        <v>-0.045451421388237</v>
       </c>
       <c r="D33">
-        <v>0.03804073778968895</v>
+        <v>0.01340636747017233</v>
       </c>
       <c r="E33">
-        <v>-0.009448391362818429</v>
+        <v>-0.01806796572206919</v>
       </c>
       <c r="F33">
-        <v>0.02418496636362516</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.03155411746456981</v>
+      </c>
+      <c r="G33">
+        <v>0.006721016279680604</v>
+      </c>
+      <c r="H33">
+        <v>0.02877632455053961</v>
+      </c>
+      <c r="I33">
+        <v>0.07493928859586863</v>
+      </c>
+      <c r="J33">
+        <v>0.001406021373545099</v>
+      </c>
+      <c r="K33">
+        <v>-0.02577302839911217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.06438313746789297</v>
+        <v>0.07001747158772809</v>
       </c>
       <c r="C34">
-        <v>-0.05813669213868789</v>
+        <v>-0.04887526937476021</v>
       </c>
       <c r="D34">
-        <v>0.02618231711688496</v>
+        <v>0.02200376209387018</v>
       </c>
       <c r="E34">
-        <v>-0.02605004536800459</v>
+        <v>0.01053394230155717</v>
       </c>
       <c r="F34">
-        <v>-0.029062603718185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03109158185999848</v>
+      </c>
+      <c r="G34">
+        <v>0.03560110327293903</v>
+      </c>
+      <c r="H34">
+        <v>0.03062509180988372</v>
+      </c>
+      <c r="I34">
+        <v>0.07330362489929616</v>
+      </c>
+      <c r="J34">
+        <v>0.0206330153894789</v>
+      </c>
+      <c r="K34">
+        <v>0.050594817729124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.04004591782942318</v>
+        <v>0.03499463490099475</v>
       </c>
       <c r="C35">
-        <v>-0.00797476078518663</v>
+        <v>-0.01802354151149932</v>
       </c>
       <c r="D35">
-        <v>0.01869426579351557</v>
+        <v>0.01289818318128099</v>
       </c>
       <c r="E35">
-        <v>-0.002833755559082987</v>
+        <v>-0.009537247762116757</v>
       </c>
       <c r="F35">
-        <v>-0.009908108249350995</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.01282372302944627</v>
+      </c>
+      <c r="G35">
+        <v>-0.01204769956763279</v>
+      </c>
+      <c r="H35">
+        <v>0.01969026232887569</v>
+      </c>
+      <c r="I35">
+        <v>0.06384238543413595</v>
+      </c>
+      <c r="J35">
+        <v>0.01670536897781971</v>
+      </c>
+      <c r="K35">
+        <v>-0.01080044707568134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.03926107852613717</v>
+        <v>0.03492874605098102</v>
       </c>
       <c r="C36">
-        <v>-0.01588656467479374</v>
+        <v>-0.01300188638452241</v>
       </c>
       <c r="D36">
-        <v>0.01646676097385655</v>
+        <v>0.003756516852521611</v>
       </c>
       <c r="E36">
-        <v>-0.03083804428861126</v>
+        <v>0.01594734061981564</v>
       </c>
       <c r="F36">
-        <v>-0.0037978012047798</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.03545174106769104</v>
+      </c>
+      <c r="G36">
+        <v>0.01356233376557131</v>
+      </c>
+      <c r="H36">
+        <v>0.01542286285625111</v>
+      </c>
+      <c r="I36">
+        <v>0.07531569688566284</v>
+      </c>
+      <c r="J36">
+        <v>0.01035773708745562</v>
+      </c>
+      <c r="K36">
+        <v>-0.04679193694296879</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1992,165 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.06616291477255813</v>
+        <v>0.05058395667521155</v>
       </c>
       <c r="C38">
-        <v>-0.008953613080966</v>
+        <v>-0.0439862374335116</v>
       </c>
       <c r="D38">
-        <v>-0.02187259675804289</v>
+        <v>-0.03808799364285786</v>
       </c>
       <c r="E38">
-        <v>0.009885502466384538</v>
+        <v>0.01536985951188445</v>
       </c>
       <c r="F38">
-        <v>-0.06259424256903452</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.003491811941565121</v>
+      </c>
+      <c r="G38">
+        <v>0.003898301054883456</v>
+      </c>
+      <c r="H38">
+        <v>0.001288521543212616</v>
+      </c>
+      <c r="I38">
+        <v>-0.08664385997815668</v>
+      </c>
+      <c r="J38">
+        <v>0.02809146707889965</v>
+      </c>
+      <c r="K38">
+        <v>-0.07064167947883233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.09459372837857456</v>
+        <v>0.1000195268050654</v>
       </c>
       <c r="C39">
-        <v>-0.04540770569934723</v>
+        <v>-0.05134205947672633</v>
       </c>
       <c r="D39">
-        <v>0.04375477661629357</v>
+        <v>0.03163983553348883</v>
       </c>
       <c r="E39">
-        <v>-0.004932625617111119</v>
+        <v>0.005052129976916822</v>
       </c>
       <c r="F39">
-        <v>-0.02629893844796707</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.04006700013583681</v>
+      </c>
+      <c r="G39">
+        <v>0.0384112386955365</v>
+      </c>
+      <c r="H39">
+        <v>0.01084674705554841</v>
+      </c>
+      <c r="I39">
+        <v>0.08543144982538385</v>
+      </c>
+      <c r="J39">
+        <v>0.1542701344605565</v>
+      </c>
+      <c r="K39">
+        <v>0.01333204627986943</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.07381597873005671</v>
+        <v>0.04605057661449689</v>
       </c>
       <c r="C40">
-        <v>-0.01350977048032639</v>
+        <v>-0.03898459112172675</v>
       </c>
       <c r="D40">
-        <v>0.02772266489561597</v>
+        <v>-0.03635058335577578</v>
       </c>
       <c r="E40">
-        <v>-0.01522250082753478</v>
+        <v>-0.005986579409899101</v>
       </c>
       <c r="F40">
-        <v>-0.09862138139138135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.06404501543190215</v>
+      </c>
+      <c r="G40">
+        <v>0.08556312024770002</v>
+      </c>
+      <c r="H40">
+        <v>-0.07960824277851393</v>
+      </c>
+      <c r="I40">
+        <v>0.1035835772018461</v>
+      </c>
+      <c r="J40">
+        <v>0.2762314643398007</v>
+      </c>
+      <c r="K40">
+        <v>-0.0771123859531587</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.06196286691324134</v>
+        <v>0.04815819009487488</v>
       </c>
       <c r="C41">
-        <v>-0.02667380899590809</v>
+        <v>-0.03214842977000428</v>
       </c>
       <c r="D41">
-        <v>0.0110569831020711</v>
+        <v>0.003918494156087549</v>
       </c>
       <c r="E41">
-        <v>0.005797896866094758</v>
+        <v>0.001651525945295783</v>
       </c>
       <c r="F41">
-        <v>-0.007219838872897961</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.01752221386315836</v>
+      </c>
+      <c r="G41">
+        <v>0.01598602653761683</v>
+      </c>
+      <c r="H41">
+        <v>0.03249948703649522</v>
+      </c>
+      <c r="I41">
+        <v>0.003614324531279746</v>
+      </c>
+      <c r="J41">
+        <v>0.03870663546539568</v>
+      </c>
+      <c r="K41">
+        <v>-0.03363056508646307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2167,95 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.06456518007483886</v>
+        <v>0.06196354916609276</v>
       </c>
       <c r="C43">
-        <v>-0.01621515451446168</v>
+        <v>-0.03477785982274998</v>
       </c>
       <c r="D43">
-        <v>0.01951846877290299</v>
+        <v>0.01046159736322469</v>
       </c>
       <c r="E43">
-        <v>-0.02091300331297173</v>
+        <v>0.02145179723620041</v>
       </c>
       <c r="F43">
-        <v>0.0025788267775319</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01518537262804567</v>
+      </c>
+      <c r="G43">
+        <v>0.002830736998616091</v>
+      </c>
+      <c r="H43">
+        <v>0.05621366169341148</v>
+      </c>
+      <c r="I43">
+        <v>0.01219366304578984</v>
+      </c>
+      <c r="J43">
+        <v>0.01537128772731889</v>
+      </c>
+      <c r="K43">
+        <v>-0.005133927798934097</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.09220040547865152</v>
+        <v>0.09469691887547151</v>
       </c>
       <c r="C44">
-        <v>-0.05333315690058917</v>
+        <v>-0.05356775995819599</v>
       </c>
       <c r="D44">
-        <v>0.01755693915017165</v>
+        <v>-0.004387206557957598</v>
       </c>
       <c r="E44">
-        <v>-0.08420964923687714</v>
+        <v>0.08228665349484027</v>
       </c>
       <c r="F44">
-        <v>-0.1049967442656141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.1124095470872906</v>
+      </c>
+      <c r="G44">
+        <v>0.06261533912259838</v>
+      </c>
+      <c r="H44">
+        <v>0.05502102867230019</v>
+      </c>
+      <c r="I44">
+        <v>0.1402713134408086</v>
+      </c>
+      <c r="J44">
+        <v>0.08058483142143408</v>
+      </c>
+      <c r="K44">
+        <v>-0.009821827577642394</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2272,235 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.03353499829829906</v>
+        <v>0.04778211673869157</v>
       </c>
       <c r="C46">
-        <v>-0.03082834534997196</v>
+        <v>-0.03151542990455405</v>
       </c>
       <c r="D46">
-        <v>0.01583603594414025</v>
+        <v>0.01269793665442673</v>
       </c>
       <c r="E46">
-        <v>-0.01936792578627897</v>
+        <v>0.02064022301649607</v>
       </c>
       <c r="F46">
-        <v>-0.04651123785575385</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04824815005369911</v>
+      </c>
+      <c r="G46">
+        <v>-0.007182409531670203</v>
+      </c>
+      <c r="H46">
+        <v>0.01611990702207097</v>
+      </c>
+      <c r="I46">
+        <v>0.03245211408900627</v>
+      </c>
+      <c r="J46">
+        <v>-0.02628695972173761</v>
+      </c>
+      <c r="K46">
+        <v>-0.03934866013368448</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.03910871621819092</v>
+        <v>0.04748594437611994</v>
       </c>
       <c r="C47">
-        <v>0.007225484037687266</v>
+        <v>-0.008716588525977825</v>
       </c>
       <c r="D47">
-        <v>0.009144158541734724</v>
+        <v>-0.004562961177209018</v>
       </c>
       <c r="E47">
-        <v>-0.01534386856089533</v>
+        <v>-0.004590697072814454</v>
       </c>
       <c r="F47">
-        <v>-0.06160114184878869</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.04221205601266523</v>
+      </c>
+      <c r="G47">
+        <v>-0.01606467812628421</v>
+      </c>
+      <c r="H47">
+        <v>0.0136718829723706</v>
+      </c>
+      <c r="I47">
+        <v>0.03036751227768525</v>
+      </c>
+      <c r="J47">
+        <v>-0.02622949740024727</v>
+      </c>
+      <c r="K47">
+        <v>-0.002388198219005716</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.05070850704056352</v>
+        <v>0.04432080118738866</v>
       </c>
       <c r="C48">
-        <v>-0.01959291743523957</v>
+        <v>-0.01484298528973913</v>
       </c>
       <c r="D48">
-        <v>0.02878475481484354</v>
+        <v>-0.003538281570316533</v>
       </c>
       <c r="E48">
-        <v>-0.02232943724065085</v>
+        <v>-0.005478446194573592</v>
       </c>
       <c r="F48">
-        <v>-0.02153086129745218</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.0449026887160355</v>
+      </c>
+      <c r="G48">
+        <v>-0.004838289412627025</v>
+      </c>
+      <c r="H48">
+        <v>-0.01170125443444383</v>
+      </c>
+      <c r="I48">
+        <v>0.05683990892658473</v>
+      </c>
+      <c r="J48">
+        <v>0.0008299241935342064</v>
+      </c>
+      <c r="K48">
+        <v>-0.05560661782896257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.1468623657304639</v>
+        <v>0.2042283997647864</v>
       </c>
       <c r="C49">
-        <v>-0.007119309866116199</v>
+        <v>-0.02076218103995101</v>
       </c>
       <c r="D49">
-        <v>0.07607341914780962</v>
+        <v>0.1634784205678516</v>
       </c>
       <c r="E49">
-        <v>-0.03400378066198192</v>
+        <v>0.007005360839969883</v>
       </c>
       <c r="F49">
-        <v>0.1132409605799222</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.1238518448281217</v>
+      </c>
+      <c r="G49">
+        <v>-0.102038710544136</v>
+      </c>
+      <c r="H49">
+        <v>-0.1840316936074745</v>
+      </c>
+      <c r="I49">
+        <v>-0.1243954737186004</v>
+      </c>
+      <c r="J49">
+        <v>0.06281941867822764</v>
+      </c>
+      <c r="K49">
+        <v>0.2440200176558463</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.06708171534695738</v>
+        <v>0.05651740416842751</v>
       </c>
       <c r="C50">
-        <v>-0.02420475282870392</v>
+        <v>-0.03525185818646891</v>
       </c>
       <c r="D50">
-        <v>0.03566754240980709</v>
+        <v>0.01237788583170789</v>
       </c>
       <c r="E50">
-        <v>-0.004461796348049619</v>
+        <v>-0.01807103461126314</v>
       </c>
       <c r="F50">
-        <v>-0.006042325487387572</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.03266635975524004</v>
+      </c>
+      <c r="G50">
+        <v>0.001542388173655721</v>
+      </c>
+      <c r="H50">
+        <v>0.05549383888918074</v>
+      </c>
+      <c r="I50">
+        <v>0.040393222005127</v>
+      </c>
+      <c r="J50">
+        <v>-0.03412079827045288</v>
+      </c>
+      <c r="K50">
+        <v>-0.03968281322545626</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.03723990349882859</v>
+        <v>0.04068668444108737</v>
       </c>
       <c r="C51">
-        <v>0.009179442787156348</v>
+        <v>0.001286224547821554</v>
       </c>
       <c r="D51">
-        <v>-0.01757339524330682</v>
+        <v>-0.01557839242718818</v>
       </c>
       <c r="E51">
-        <v>-0.007083497413448153</v>
+        <v>0.02939396821437498</v>
       </c>
       <c r="F51">
-        <v>-0.01583453899271578</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.0244514678661394</v>
+      </c>
+      <c r="G51">
+        <v>-0.0101474227249112</v>
+      </c>
+      <c r="H51">
+        <v>-0.01778841048058657</v>
+      </c>
+      <c r="I51">
+        <v>-0.009164118282813613</v>
+      </c>
+      <c r="J51">
+        <v>0.03847128906995934</v>
+      </c>
+      <c r="K51">
+        <v>0.07261650832104141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2517,165 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.1540698706975547</v>
+        <v>0.1555457793612085</v>
       </c>
       <c r="C53">
-        <v>0.03245366731346085</v>
+        <v>-0.01478667841608371</v>
       </c>
       <c r="D53">
-        <v>0.067485582660126</v>
+        <v>0.06420579762042949</v>
       </c>
       <c r="E53">
-        <v>-0.002038290403091387</v>
+        <v>-0.01373360482475553</v>
       </c>
       <c r="F53">
-        <v>0.04919872321737042</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.02534350807759781</v>
+      </c>
+      <c r="G53">
+        <v>-0.04460176274175204</v>
+      </c>
+      <c r="H53">
+        <v>0.230286391615649</v>
+      </c>
+      <c r="I53">
+        <v>-0.05730738097148212</v>
+      </c>
+      <c r="J53">
+        <v>-0.05315154803928449</v>
+      </c>
+      <c r="K53">
+        <v>0.04422534224527067</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.06564365944709337</v>
+        <v>0.06441650372929562</v>
       </c>
       <c r="C54">
-        <v>-0.02033445364214993</v>
+        <v>-0.01295970859374449</v>
       </c>
       <c r="D54">
-        <v>0.008723858355047787</v>
+        <v>-0.008477984355006353</v>
       </c>
       <c r="E54">
-        <v>-0.0354601976032266</v>
+        <v>0.02037179015723875</v>
       </c>
       <c r="F54">
-        <v>-0.06547929028679139</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.08105611968838311</v>
+      </c>
+      <c r="G54">
+        <v>0.04617531783477558</v>
+      </c>
+      <c r="H54">
+        <v>0.01283846042952967</v>
+      </c>
+      <c r="I54">
+        <v>0.1190275056288614</v>
+      </c>
+      <c r="J54">
+        <v>-0.01471018051100022</v>
+      </c>
+      <c r="K54">
+        <v>-0.07598707940861839</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.09584062009611398</v>
+        <v>0.09572672999286154</v>
       </c>
       <c r="C55">
-        <v>0.002208921612496345</v>
+        <v>-0.02805897690586258</v>
       </c>
       <c r="D55">
-        <v>0.0495754662798789</v>
+        <v>0.03936975518323391</v>
       </c>
       <c r="E55">
-        <v>-0.0210574278528726</v>
+        <v>0.008064619604218632</v>
       </c>
       <c r="F55">
-        <v>-0.002450999188160194</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.007149803254156796</v>
+      </c>
+      <c r="G55">
+        <v>0.003794267421971203</v>
+      </c>
+      <c r="H55">
+        <v>0.1767672101943631</v>
+      </c>
+      <c r="I55">
+        <v>0.00955201860309236</v>
+      </c>
+      <c r="J55">
+        <v>-0.03589369965378512</v>
+      </c>
+      <c r="K55">
+        <v>0.04031084538678908</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.1536085573739772</v>
+        <v>0.1524953904232297</v>
       </c>
       <c r="C56">
-        <v>0.02984575957100811</v>
+        <v>-0.03374695754985467</v>
       </c>
       <c r="D56">
-        <v>0.08681418991706928</v>
+        <v>0.06855341171627521</v>
       </c>
       <c r="E56">
-        <v>-0.04025092991597919</v>
+        <v>0.001334815726676</v>
       </c>
       <c r="F56">
-        <v>0.05376874821079732</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.0008798190346332977</v>
+      </c>
+      <c r="G56">
+        <v>-0.02615948222082207</v>
+      </c>
+      <c r="H56">
+        <v>0.2350368209094382</v>
+      </c>
+      <c r="I56">
+        <v>-0.07157521406477386</v>
+      </c>
+      <c r="J56">
+        <v>-0.02711269428555776</v>
+      </c>
+      <c r="K56">
+        <v>0.004718142517721629</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,770 +2692,1355 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.1158251575043951</v>
+        <v>0.07583475625124851</v>
       </c>
       <c r="C58">
-        <v>-0.05866021966336982</v>
+        <v>-0.04510418968098988</v>
       </c>
       <c r="D58">
-        <v>-0.1244144217731698</v>
+        <v>-0.1715991568749451</v>
       </c>
       <c r="E58">
-        <v>-0.1138982629911487</v>
+        <v>0.0791300380388865</v>
       </c>
       <c r="F58">
-        <v>-0.2084768263778607</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.02867253495716981</v>
+      </c>
+      <c r="G58">
+        <v>-0.1208500863159137</v>
+      </c>
+      <c r="H58">
+        <v>-0.2529512156315083</v>
+      </c>
+      <c r="I58">
+        <v>0.4813876094274713</v>
+      </c>
+      <c r="J58">
+        <v>0.08080337742702531</v>
+      </c>
+      <c r="K58">
+        <v>0.1770576398531108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.1329787417046517</v>
+        <v>0.1702335058678693</v>
       </c>
       <c r="C59">
-        <v>0.4422747138287902</v>
+        <v>0.3546873889256937</v>
       </c>
       <c r="D59">
-        <v>-0.03662491453173589</v>
+        <v>-0.02925401368808416</v>
       </c>
       <c r="E59">
-        <v>-0.08469807884687583</v>
+        <v>0.03343592252251683</v>
       </c>
       <c r="F59">
-        <v>-0.05832430536171435</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.02106879400314149</v>
+      </c>
+      <c r="G59">
+        <v>0.02959980939933203</v>
+      </c>
+      <c r="H59">
+        <v>0.05234466271182153</v>
+      </c>
+      <c r="I59">
+        <v>-0.04223669924131547</v>
+      </c>
+      <c r="J59">
+        <v>0.062063383313291</v>
+      </c>
+      <c r="K59">
+        <v>-0.003864312945772663</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.2204463837578656</v>
+        <v>0.2465256949383025</v>
       </c>
       <c r="C60">
-        <v>0.02612053979035173</v>
+        <v>-0.03856215403169911</v>
       </c>
       <c r="D60">
-        <v>0.07879245420724923</v>
+        <v>0.1209198668767403</v>
       </c>
       <c r="E60">
-        <v>-0.05332871811294333</v>
+        <v>0.0331480338463109</v>
       </c>
       <c r="F60">
-        <v>0.01043351920705824</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.07404582809327866</v>
+      </c>
+      <c r="G60">
+        <v>0.004619658594658379</v>
+      </c>
+      <c r="H60">
+        <v>-0.1039622403563576</v>
+      </c>
+      <c r="I60">
+        <v>-0.1302660112923314</v>
+      </c>
+      <c r="J60">
+        <v>-0.09430277155477709</v>
+      </c>
+      <c r="K60">
+        <v>0.1626920703652416</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.08030492349087956</v>
+        <v>0.08952112631020351</v>
       </c>
       <c r="C61">
-        <v>-0.02424124771005895</v>
+        <v>-0.03609429933547603</v>
       </c>
       <c r="D61">
-        <v>0.03020734899381212</v>
+        <v>0.02499231078844704</v>
       </c>
       <c r="E61">
-        <v>-0.006999911624185665</v>
+        <v>0.01452437917460763</v>
       </c>
       <c r="F61">
-        <v>-0.003045845792023148</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.02945938751522127</v>
+      </c>
+      <c r="G61">
+        <v>0.04311142829531084</v>
+      </c>
+      <c r="H61">
+        <v>0.06505776761271032</v>
+      </c>
+      <c r="I61">
+        <v>0.05217862960050421</v>
+      </c>
+      <c r="J61">
+        <v>0.07882889148251981</v>
+      </c>
+      <c r="K61">
+        <v>0.00119633599590954</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>-0.1490551402248552</v>
+        <v>0.1463035217036958</v>
       </c>
       <c r="C62">
-        <v>0.02348937301286267</v>
+        <v>-0.03795942058703984</v>
       </c>
       <c r="D62">
-        <v>0.04391608874202672</v>
+        <v>0.04443964991396469</v>
       </c>
       <c r="E62">
-        <v>0.01984715838995087</v>
+        <v>-0.03750395924500487</v>
       </c>
       <c r="F62">
-        <v>0.06980577971801663</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.03579948601585776</v>
+      </c>
+      <c r="G62">
+        <v>0.001841828454483244</v>
+      </c>
+      <c r="H62">
+        <v>0.2267703085292722</v>
+      </c>
+      <c r="I62">
+        <v>-0.06529875123109033</v>
+      </c>
+      <c r="J62">
+        <v>-0.09582752151797155</v>
+      </c>
+      <c r="K62">
+        <v>0.002635680429512864</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.06222244035350227</v>
+        <v>0.05455264997386292</v>
       </c>
       <c r="C63">
-        <v>-0.02702618327019491</v>
+        <v>-0.02167038197550199</v>
       </c>
       <c r="D63">
-        <v>0.0238017084943699</v>
+        <v>0.01166961004630765</v>
       </c>
       <c r="E63">
-        <v>-0.014771954296949</v>
+        <v>-0.01098385926259682</v>
       </c>
       <c r="F63">
-        <v>-0.006079795081552414</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.03242025973051606</v>
+      </c>
+      <c r="G63">
+        <v>0.03696403488564403</v>
+      </c>
+      <c r="H63">
+        <v>0.01870888327844284</v>
+      </c>
+      <c r="I63">
+        <v>0.05788442389280791</v>
+      </c>
+      <c r="J63">
+        <v>-0.02627327588775389</v>
+      </c>
+      <c r="K63">
+        <v>-0.04103540015167881</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.09993245529133001</v>
+        <v>0.1058641862014859</v>
       </c>
       <c r="C64">
-        <v>0.003650997492080398</v>
+        <v>-0.0185127434489165</v>
       </c>
       <c r="D64">
-        <v>0.05417499008848823</v>
+        <v>0.05009281104941905</v>
       </c>
       <c r="E64">
-        <v>-0.02864331052449677</v>
+        <v>0.01933933946848327</v>
       </c>
       <c r="F64">
-        <v>-0.03816968124323689</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.06201931592017615</v>
+      </c>
+      <c r="G64">
+        <v>0.03397543219089678</v>
+      </c>
+      <c r="H64">
+        <v>-0.01662763606176374</v>
+      </c>
+      <c r="I64">
+        <v>0.03996859063021107</v>
+      </c>
+      <c r="J64">
+        <v>0.05350557509959519</v>
+      </c>
+      <c r="K64">
+        <v>-0.02258901808908352</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.1224544974481108</v>
+        <v>0.1323527450135329</v>
       </c>
       <c r="C65">
-        <v>-0.02360160637369933</v>
+        <v>-0.01139684185725593</v>
       </c>
       <c r="D65">
-        <v>0.04640932829523347</v>
+        <v>0.06356607528815565</v>
       </c>
       <c r="E65">
-        <v>-0.05022043940629593</v>
+        <v>-0.01001845551236407</v>
       </c>
       <c r="F65">
-        <v>-0.08367693866197488</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.04405301912249449</v>
+      </c>
+      <c r="G65">
+        <v>0.09275811299544311</v>
+      </c>
+      <c r="H65">
+        <v>-0.2225840209237435</v>
+      </c>
+      <c r="I65">
+        <v>0.1587581828231504</v>
+      </c>
+      <c r="J65">
+        <v>-0.6375581845803451</v>
+      </c>
+      <c r="K65">
+        <v>0.0111866252057427</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.1583730514686144</v>
+        <v>0.1467738953128262</v>
       </c>
       <c r="C66">
-        <v>-0.07745248773270945</v>
+        <v>-0.0928568571683475</v>
       </c>
       <c r="D66">
-        <v>0.05990614233881185</v>
+        <v>0.04563436398483132</v>
       </c>
       <c r="E66">
-        <v>-0.01329784439877953</v>
+        <v>0.0001681500460603363</v>
       </c>
       <c r="F66">
-        <v>0.0292286484699447</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.02670042398142626</v>
+      </c>
+      <c r="G66">
+        <v>0.08041490994663822</v>
+      </c>
+      <c r="H66">
+        <v>0.04107015436231453</v>
+      </c>
+      <c r="I66">
+        <v>0.101387462314007</v>
+      </c>
+      <c r="J66">
+        <v>0.2313155341861283</v>
+      </c>
+      <c r="K66">
+        <v>-0.03624705904517681</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.09681669834812574</v>
+        <v>0.09681101901573701</v>
       </c>
       <c r="C67">
-        <v>-0.009057624295689385</v>
+        <v>-0.04625191496732348</v>
       </c>
       <c r="D67">
-        <v>-0.02712169329534127</v>
+        <v>-0.0192334642215646</v>
       </c>
       <c r="E67">
-        <v>-0.01167079838109708</v>
+        <v>0.04356305517400786</v>
       </c>
       <c r="F67">
-        <v>-0.02520789731182703</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01934436658906408</v>
+      </c>
+      <c r="G67">
+        <v>0.03028676486574867</v>
+      </c>
+      <c r="H67">
+        <v>0.004293417089675495</v>
+      </c>
+      <c r="I67">
+        <v>-0.1186719956164706</v>
+      </c>
+      <c r="J67">
+        <v>0.05072575778098527</v>
+      </c>
+      <c r="K67">
+        <v>-0.03897042282576673</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.04257413270955194</v>
+        <v>0.07830046333240542</v>
       </c>
       <c r="C68">
-        <v>0.2595077431049924</v>
+        <v>0.2807126388384672</v>
       </c>
       <c r="D68">
-        <v>-0.02178522351030414</v>
+        <v>-0.0203665745345067</v>
       </c>
       <c r="E68">
-        <v>-0.0448056438096896</v>
+        <v>0.01494449507819108</v>
       </c>
       <c r="F68">
-        <v>-0.03611227525182711</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.03573327138057047</v>
+      </c>
+      <c r="G68">
+        <v>-0.02260793707092944</v>
+      </c>
+      <c r="H68">
+        <v>0.01355941168124029</v>
+      </c>
+      <c r="I68">
+        <v>0.03466907735951575</v>
+      </c>
+      <c r="J68">
+        <v>-0.04103068822619967</v>
+      </c>
+      <c r="K68">
+        <v>-0.02221451633225202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.06853860001940672</v>
+        <v>0.05660503968499492</v>
       </c>
       <c r="C69">
-        <v>-0.01416122862972764</v>
+        <v>-0.01857437902381854</v>
       </c>
       <c r="D69">
-        <v>-0.0002196923771005535</v>
+        <v>-0.02127444017091444</v>
       </c>
       <c r="E69">
-        <v>-0.01542645675511757</v>
+        <v>-0.005006314340027411</v>
       </c>
       <c r="F69">
-        <v>-0.004487878684754671</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.006932597334977137</v>
+      </c>
+      <c r="G69">
+        <v>0.007258548127826394</v>
+      </c>
+      <c r="H69">
+        <v>0.03111009063360326</v>
+      </c>
+      <c r="I69">
+        <v>0.008616785805985825</v>
+      </c>
+      <c r="J69">
+        <v>0.005810613892737836</v>
+      </c>
+      <c r="K69">
+        <v>0.003044329950862876</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>-0.0151329394684004</v>
+        <v>0.03913922270147711</v>
       </c>
       <c r="C70">
-        <v>0.01358294231191449</v>
+        <v>-0.00727866572002045</v>
       </c>
       <c r="D70">
-        <v>-0.005606721975477132</v>
+        <v>-0.008047018586148414</v>
       </c>
       <c r="E70">
-        <v>0.01619826136451841</v>
+        <v>0.007710839488444725</v>
       </c>
       <c r="F70">
-        <v>0.01292862535773225</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>-0.04383394695564397</v>
+      </c>
+      <c r="G70">
+        <v>0.004040652456065036</v>
+      </c>
+      <c r="H70">
+        <v>-0.03496472578614063</v>
+      </c>
+      <c r="I70">
+        <v>-0.05257504683109273</v>
+      </c>
+      <c r="J70">
+        <v>0.03446579274030484</v>
+      </c>
+      <c r="K70">
+        <v>-0.1104504394653322</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.04005201208267201</v>
+        <v>0.0879330585820447</v>
       </c>
       <c r="C71">
-        <v>0.2858108860638304</v>
+        <v>0.3002015499203123</v>
       </c>
       <c r="D71">
-        <v>-0.02698623857948319</v>
+        <v>-0.0103742089629706</v>
       </c>
       <c r="E71">
-        <v>-0.0753775165900757</v>
+        <v>0.0329255937555364</v>
       </c>
       <c r="F71">
-        <v>-0.02784958094243448</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.03499376057092865</v>
+      </c>
+      <c r="G71">
+        <v>-0.007891245524830672</v>
+      </c>
+      <c r="H71">
+        <v>0.01420415677973387</v>
+      </c>
+      <c r="I71">
+        <v>0.01914814986382227</v>
+      </c>
+      <c r="J71">
+        <v>-0.0100547326006961</v>
+      </c>
+      <c r="K71">
+        <v>-0.006059305872477747</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.1447524104764064</v>
+        <v>0.1355091417543438</v>
       </c>
       <c r="C72">
-        <v>0.04530869633174804</v>
+        <v>0.0005321208873559126</v>
       </c>
       <c r="D72">
-        <v>0.03082489684292182</v>
+        <v>-0.02629513010737327</v>
       </c>
       <c r="E72">
-        <v>0.2315037341595635</v>
+        <v>-0.1664177008799979</v>
       </c>
       <c r="F72">
-        <v>-0.044271024395048</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.01963239983000777</v>
+      </c>
+      <c r="G72">
+        <v>0.111640394602508</v>
+      </c>
+      <c r="H72">
+        <v>0.03112898082855119</v>
+      </c>
+      <c r="I72">
+        <v>-0.01141061214872585</v>
+      </c>
+      <c r="J72">
+        <v>-0.106375242398229</v>
+      </c>
+      <c r="K72">
+        <v>0.119975156752045</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.2515529282580104</v>
+        <v>0.2449720178366945</v>
       </c>
       <c r="C73">
-        <v>-0.0487178994709468</v>
+        <v>-0.1046841414015994</v>
       </c>
       <c r="D73">
-        <v>0.09038032000044419</v>
+        <v>0.1671995761141301</v>
       </c>
       <c r="E73">
-        <v>-0.09358774618739439</v>
+        <v>0.08131240055756868</v>
       </c>
       <c r="F73">
-        <v>0.1892178817941733</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.2555401751784317</v>
+      </c>
+      <c r="G73">
+        <v>-0.1588819581110017</v>
+      </c>
+      <c r="H73">
+        <v>-0.2566671261513973</v>
+      </c>
+      <c r="I73">
+        <v>-0.1186483505106012</v>
+      </c>
+      <c r="J73">
+        <v>0.2167643604985238</v>
+      </c>
+      <c r="K73">
+        <v>0.4773688781006089</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.08602906213503438</v>
+        <v>0.09304465871600431</v>
       </c>
       <c r="C74">
-        <v>0.01686073490660516</v>
+        <v>-0.03000182738602312</v>
       </c>
       <c r="D74">
-        <v>0.05594920362371902</v>
+        <v>0.04788842299378836</v>
       </c>
       <c r="E74">
-        <v>-0.005836742564265688</v>
+        <v>-0.01405802041740837</v>
       </c>
       <c r="F74">
-        <v>0.005042674771889799</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.001018281674466548</v>
+      </c>
+      <c r="G74">
+        <v>-0.04313949587375673</v>
+      </c>
+      <c r="H74">
+        <v>0.1381477714531773</v>
+      </c>
+      <c r="I74">
+        <v>0.00377806057356348</v>
+      </c>
+      <c r="J74">
+        <v>-0.00287661311427787</v>
+      </c>
+      <c r="K74">
+        <v>0.05264447638703586</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.1225843780858516</v>
+        <v>0.1052433093881602</v>
       </c>
       <c r="C75">
-        <v>0.002119599176173943</v>
+        <v>-0.02937731678522103</v>
       </c>
       <c r="D75">
-        <v>0.004422991365878895</v>
+        <v>-0.01618054614635841</v>
       </c>
       <c r="E75">
-        <v>-0.02265321294828426</v>
+        <v>0.003806515816862956</v>
       </c>
       <c r="F75">
-        <v>0.03653505438798495</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.02717628580849615</v>
+      </c>
+      <c r="G75">
+        <v>-0.02709674661124616</v>
+      </c>
+      <c r="H75">
+        <v>0.1202271075225064</v>
+      </c>
+      <c r="I75">
+        <v>-0.02777171455989322</v>
+      </c>
+      <c r="J75">
+        <v>-0.04507118106926505</v>
+      </c>
+      <c r="K75">
+        <v>0.003985584696761142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.1412814523932313</v>
+        <v>0.1271517388035444</v>
       </c>
       <c r="C76">
-        <v>0.00695735752673239</v>
+        <v>-0.04862138478742777</v>
       </c>
       <c r="D76">
-        <v>0.07189938020361779</v>
+        <v>0.06561959708153838</v>
       </c>
       <c r="E76">
-        <v>-0.02402420061960677</v>
+        <v>0.004937759464715758</v>
       </c>
       <c r="F76">
-        <v>0.005800220398626527</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.001875048705802248</v>
+      </c>
+      <c r="G76">
+        <v>-0.03365509305420344</v>
+      </c>
+      <c r="H76">
+        <v>0.2610900469295276</v>
+      </c>
+      <c r="I76">
+        <v>-0.04023949648367232</v>
+      </c>
+      <c r="J76">
+        <v>-0.05195481491443169</v>
+      </c>
+      <c r="K76">
+        <v>0.009652931546737251</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.1314577375791567</v>
+        <v>0.09105968063245977</v>
       </c>
       <c r="C77">
-        <v>-0.03561160475465053</v>
+        <v>-0.02674094322130959</v>
       </c>
       <c r="D77">
-        <v>-0.06118000205484297</v>
+        <v>-0.1335211762567896</v>
       </c>
       <c r="E77">
-        <v>-0.02894340039382083</v>
+        <v>0.09956400202661221</v>
       </c>
       <c r="F77">
-        <v>-0.4400150384827577</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.1207296057694702</v>
+      </c>
+      <c r="G77">
+        <v>0.7662376891382769</v>
+      </c>
+      <c r="H77">
+        <v>-0.1307628733891313</v>
+      </c>
+      <c r="I77">
+        <v>-0.3718503567770315</v>
+      </c>
+      <c r="J77">
+        <v>0.09749981680846999</v>
+      </c>
+      <c r="K77">
+        <v>0.0367718959636283</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.1273808085814668</v>
+        <v>0.1639184283251906</v>
       </c>
       <c r="C78">
-        <v>-0.06793898438319748</v>
+        <v>-0.07211438125061342</v>
       </c>
       <c r="D78">
-        <v>0.05223940653852772</v>
+        <v>0.02032847905255101</v>
       </c>
       <c r="E78">
-        <v>-0.01302365074943294</v>
+        <v>0.06139218802118926</v>
       </c>
       <c r="F78">
-        <v>-0.1032104361338688</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.1745439037330104</v>
+      </c>
+      <c r="G78">
+        <v>0.03035195830543927</v>
+      </c>
+      <c r="H78">
+        <v>-0.09634141846689238</v>
+      </c>
+      <c r="I78">
+        <v>0.03582799749203232</v>
+      </c>
+      <c r="J78">
+        <v>-0.04661353618387816</v>
+      </c>
+      <c r="K78">
+        <v>0.1165085594425081</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.15051788552763</v>
+        <v>0.1445941770724561</v>
       </c>
       <c r="C79">
-        <v>-0.01821894819770231</v>
+        <v>-0.04196426777620239</v>
       </c>
       <c r="D79">
-        <v>0.06329162993664145</v>
+        <v>0.04503338979089049</v>
       </c>
       <c r="E79">
-        <v>-0.002907104059309676</v>
+        <v>-0.008133413297377665</v>
       </c>
       <c r="F79">
-        <v>0.06215210840271012</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>-0.0007702447145181344</v>
+      </c>
+      <c r="G79">
+        <v>0.01077654971256</v>
+      </c>
+      <c r="H79">
+        <v>0.1946308454788807</v>
+      </c>
+      <c r="I79">
+        <v>-0.04352223573723124</v>
+      </c>
+      <c r="J79">
+        <v>-0.08219893041979824</v>
+      </c>
+      <c r="K79">
+        <v>0.009178494718334628</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.03820440437964547</v>
+        <v>0.04376028724927274</v>
       </c>
       <c r="C80">
-        <v>-0.01887179793545608</v>
+        <v>-0.007736845327501147</v>
       </c>
       <c r="D80">
-        <v>0.01204974135962299</v>
+        <v>0.04373048304806877</v>
       </c>
       <c r="E80">
-        <v>-0.007928809073303417</v>
+        <v>-0.00462409553367743</v>
       </c>
       <c r="F80">
-        <v>0.0007138757609833589</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.04208078042886806</v>
+      </c>
+      <c r="G80">
+        <v>0.001799355463386515</v>
+      </c>
+      <c r="H80">
+        <v>-0.03496015388608512</v>
+      </c>
+      <c r="I80">
+        <v>0.08673366567163102</v>
+      </c>
+      <c r="J80">
+        <v>0.02144661204527097</v>
+      </c>
+      <c r="K80">
+        <v>-0.01930290199113499</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.1365130025709539</v>
+        <v>0.1326978967462966</v>
       </c>
       <c r="C81">
-        <v>0.001443031121649442</v>
+        <v>-0.01814945673781369</v>
       </c>
       <c r="D81">
-        <v>0.0477927576930922</v>
+        <v>0.03919393218588553</v>
       </c>
       <c r="E81">
-        <v>-0.02998868680478464</v>
+        <v>-0.002955386499120661</v>
       </c>
       <c r="F81">
-        <v>0.05571239273722074</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.006969330365083968</v>
+      </c>
+      <c r="G81">
+        <v>-0.01732335141834143</v>
+      </c>
+      <c r="H81">
+        <v>0.1561565841737136</v>
+      </c>
+      <c r="I81">
+        <v>-0.001244086697790652</v>
+      </c>
+      <c r="J81">
+        <v>0.01672324800170151</v>
+      </c>
+      <c r="K81">
+        <v>-0.02027162199620473</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.1231681299011069</v>
+        <v>0.127057588620779</v>
       </c>
       <c r="C82">
-        <v>-0.01655344542427137</v>
+        <v>-0.02922702653275986</v>
       </c>
       <c r="D82">
-        <v>0.03214339544677419</v>
+        <v>0.03835740118095654</v>
       </c>
       <c r="E82">
-        <v>-0.03854686017901125</v>
+        <v>0.00427999169947894</v>
       </c>
       <c r="F82">
-        <v>0.06165331909672821</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.02602561754394447</v>
+      </c>
+      <c r="G82">
+        <v>-0.04288694889021204</v>
+      </c>
+      <c r="H82">
+        <v>0.2785584839072875</v>
+      </c>
+      <c r="I82">
+        <v>-0.03603371999239</v>
+      </c>
+      <c r="J82">
+        <v>-0.003745156034278838</v>
+      </c>
+      <c r="K82">
+        <v>-0.0217507208452238</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.05438789975406525</v>
+        <v>0.07684538556753939</v>
       </c>
       <c r="C83">
-        <v>-0.01728744015149587</v>
+        <v>-0.03161467638119786</v>
       </c>
       <c r="D83">
-        <v>-0.0660992183504748</v>
+        <v>-0.03589636440101743</v>
       </c>
       <c r="E83">
-        <v>-0.02063610506117689</v>
+        <v>0.04282518489976573</v>
       </c>
       <c r="F83">
-        <v>0.07678823928875797</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.06815269953811023</v>
+      </c>
+      <c r="G83">
+        <v>-0.03044850568908766</v>
+      </c>
+      <c r="H83">
+        <v>-0.07041280941600538</v>
+      </c>
+      <c r="I83">
+        <v>0.06504312487461625</v>
+      </c>
+      <c r="J83">
+        <v>0.05277927501868478</v>
+      </c>
+      <c r="K83">
+        <v>-0.03556104746834195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.05015881429067376</v>
+        <v>0.03457061648787765</v>
       </c>
       <c r="C84">
-        <v>-0.01233207840242507</v>
+        <v>-0.04239406112762011</v>
       </c>
       <c r="D84">
-        <v>0.04419281283033739</v>
+        <v>0.00303630533886649</v>
       </c>
       <c r="E84">
-        <v>0.02738348000925025</v>
+        <v>-0.0518984315705829</v>
       </c>
       <c r="F84">
-        <v>0.01357411739715546</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.04347863474030546</v>
+      </c>
+      <c r="G84">
+        <v>-0.05439737179786048</v>
+      </c>
+      <c r="H84">
+        <v>0.0004078739526171023</v>
+      </c>
+      <c r="I84">
+        <v>0.1101958304917147</v>
+      </c>
+      <c r="J84">
+        <v>0.03614404191527144</v>
+      </c>
+      <c r="K84">
+        <v>-0.1065049018040751</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.1135192167321756</v>
+        <v>0.1204738352341255</v>
       </c>
       <c r="C85">
-        <v>-0.03310770183417922</v>
+        <v>-0.03814281712487039</v>
       </c>
       <c r="D85">
-        <v>0.02018123215782822</v>
+        <v>0.02311965665356022</v>
       </c>
       <c r="E85">
-        <v>-0.06011718700053859</v>
+        <v>0.03649554508416311</v>
       </c>
       <c r="F85">
-        <v>0.01140962307714495</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.005887509508553943</v>
+      </c>
+      <c r="G85">
+        <v>-0.007204503406830469</v>
+      </c>
+      <c r="H85">
+        <v>0.1981476188770458</v>
+      </c>
+      <c r="I85">
+        <v>-0.01226389005605386</v>
+      </c>
+      <c r="J85">
+        <v>-0.07819988658143807</v>
+      </c>
+      <c r="K85">
+        <v>0.01670150195711554</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.0776704044221623</v>
+        <v>0.07057769498333091</v>
       </c>
       <c r="C86">
-        <v>-0.06708375651755352</v>
+        <v>-0.03447778313377963</v>
       </c>
       <c r="D86">
-        <v>0.02234127040579351</v>
+        <v>-0.00778281046265971</v>
       </c>
       <c r="E86">
-        <v>-0.009277194050418418</v>
+        <v>0.02125940359558307</v>
       </c>
       <c r="F86">
-        <v>-0.02671012839725619</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.03721069054673348</v>
+      </c>
+      <c r="G86">
+        <v>-0.0133821271098862</v>
+      </c>
+      <c r="H86">
+        <v>-0.03186766936013352</v>
+      </c>
+      <c r="I86">
+        <v>-0.007021553893632672</v>
+      </c>
+      <c r="J86">
+        <v>-0.01975037893579836</v>
+      </c>
+      <c r="K86">
+        <v>-0.03216278178338794</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.1309904275263487</v>
+        <v>0.1281146689127144</v>
       </c>
       <c r="C87">
-        <v>-0.06902407228077108</v>
+        <v>-0.0722310008941566</v>
       </c>
       <c r="D87">
-        <v>0.06288110338331195</v>
+        <v>0.0183050690486207</v>
       </c>
       <c r="E87">
-        <v>-0.03510025611495345</v>
+        <v>0.0076065664302911</v>
       </c>
       <c r="F87">
-        <v>-0.1801520766613025</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.1063956736609259</v>
+      </c>
+      <c r="G87">
+        <v>0.2046932750921025</v>
+      </c>
+      <c r="H87">
+        <v>-0.05479002927112619</v>
+      </c>
+      <c r="I87">
+        <v>-0.0184712850808531</v>
+      </c>
+      <c r="J87">
+        <v>0.01841794659600527</v>
+      </c>
+      <c r="K87">
+        <v>-0.04387153804670268</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.05824422497318527</v>
+        <v>0.06525120000805541</v>
       </c>
       <c r="C88">
-        <v>-0.0223930288456682</v>
+        <v>-0.037896418251247</v>
       </c>
       <c r="D88">
-        <v>0.0194680759694813</v>
+        <v>0.03193448440566218</v>
       </c>
       <c r="E88">
-        <v>-0.009528657511493453</v>
+        <v>0.01062372683759937</v>
       </c>
       <c r="F88">
-        <v>-0.0001976552055241227</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.004802939127831261</v>
+      </c>
+      <c r="G88">
+        <v>0.007602549629274123</v>
+      </c>
+      <c r="H88">
+        <v>0.01667343524816639</v>
+      </c>
+      <c r="I88">
+        <v>0.0395126713388101</v>
+      </c>
+      <c r="J88">
+        <v>0.03177732281248011</v>
+      </c>
+      <c r="K88">
+        <v>-0.01909171312923207</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.07804076194265215</v>
+        <v>0.1451480364427565</v>
       </c>
       <c r="C89">
-        <v>0.3222637901463219</v>
+        <v>0.376952769812638</v>
       </c>
       <c r="D89">
-        <v>-0.02097483863326158</v>
+        <v>0.005726184927593313</v>
       </c>
       <c r="E89">
-        <v>-0.1076408346401835</v>
+        <v>0.07843083580479601</v>
       </c>
       <c r="F89">
-        <v>-0.04666428441972524</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02711040445262332</v>
+      </c>
+      <c r="G89">
+        <v>-0.02943218487770224</v>
+      </c>
+      <c r="H89">
+        <v>-0.009607424466107269</v>
+      </c>
+      <c r="I89">
+        <v>0.06915043087100681</v>
+      </c>
+      <c r="J89">
+        <v>0.07914411616456066</v>
+      </c>
+      <c r="K89">
+        <v>0.01538168808085168</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.06315585198434386</v>
+        <v>0.1008991549984882</v>
       </c>
       <c r="C90">
-        <v>0.2892777918436201</v>
+        <v>0.2821757473367517</v>
       </c>
       <c r="D90">
-        <v>-0.0451834169370921</v>
+        <v>-0.02985704909848818</v>
       </c>
       <c r="E90">
-        <v>-0.05017610678828198</v>
+        <v>0.030634180066815</v>
       </c>
       <c r="F90">
-        <v>-0.07062666956896053</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.01671435040095226</v>
+      </c>
+      <c r="G90">
+        <v>0.02849553236401364</v>
+      </c>
+      <c r="H90">
+        <v>-0.03787073031365969</v>
+      </c>
+      <c r="I90">
+        <v>0.05098885358960573</v>
+      </c>
+      <c r="J90">
+        <v>0.06512230773786166</v>
+      </c>
+      <c r="K90">
+        <v>0.0143929382590212</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.1043202850749613</v>
+        <v>0.08927606991642487</v>
       </c>
       <c r="C91">
-        <v>-0.01146535386885388</v>
+        <v>-0.03688155856966106</v>
       </c>
       <c r="D91">
-        <v>0.03203342213224195</v>
+        <v>0.009807649272143842</v>
       </c>
       <c r="E91">
-        <v>-0.01371512365777351</v>
+        <v>-0.001504153815335061</v>
       </c>
       <c r="F91">
-        <v>0.0206653823900006</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.01106434244753661</v>
+      </c>
+      <c r="G91">
+        <v>-0.03551322500642577</v>
+      </c>
+      <c r="H91">
+        <v>0.0844111836280714</v>
+      </c>
+      <c r="I91">
+        <v>-0.01415181418961133</v>
+      </c>
+      <c r="J91">
+        <v>-0.02120350763371148</v>
+      </c>
+      <c r="K91">
+        <v>0.01045398727066685</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.04705478946367436</v>
+        <v>0.1023352652513334</v>
       </c>
       <c r="C92">
-        <v>0.3373101771903056</v>
+        <v>0.3388614552215903</v>
       </c>
       <c r="D92">
-        <v>-0.004698450096339947</v>
+        <v>0.004161789414503513</v>
       </c>
       <c r="E92">
-        <v>-0.08871296298764114</v>
+        <v>0.0399002655590456</v>
       </c>
       <c r="F92">
-        <v>-0.01864098647452627</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.04366906267411384</v>
+      </c>
+      <c r="G92">
+        <v>-0.0270825160873991</v>
+      </c>
+      <c r="H92">
+        <v>0.01545409019931963</v>
+      </c>
+      <c r="I92">
+        <v>0.01886979957604411</v>
+      </c>
+      <c r="J92">
+        <v>0.02853677529239185</v>
+      </c>
+      <c r="K92">
+        <v>0.002041196370878695</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.04603465228390755</v>
+        <v>0.1039329845685659</v>
       </c>
       <c r="C93">
-        <v>0.2974734973461683</v>
+        <v>0.3146171274777465</v>
       </c>
       <c r="D93">
-        <v>-0.02324404398363919</v>
+        <v>0.001874332492308492</v>
       </c>
       <c r="E93">
-        <v>-0.0530925404355628</v>
+        <v>0.02046699077935455</v>
       </c>
       <c r="F93">
-        <v>-0.03930506627079414</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.00377130513577514</v>
+      </c>
+      <c r="G93">
+        <v>-0.001323873103646205</v>
+      </c>
+      <c r="H93">
+        <v>-0.01514432154460704</v>
+      </c>
+      <c r="I93">
+        <v>0.0008691297270995095</v>
+      </c>
+      <c r="J93">
+        <v>-0.003217695069272983</v>
+      </c>
+      <c r="K93">
+        <v>-0.03127741496929436</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.1278577307058802</v>
+        <v>0.1210248382987296</v>
       </c>
       <c r="C94">
-        <v>-0.05336629349840744</v>
+        <v>-0.05793461855500991</v>
       </c>
       <c r="D94">
-        <v>0.03264628194796538</v>
+        <v>0.01100151549475959</v>
       </c>
       <c r="E94">
-        <v>-0.03585990099793529</v>
+        <v>0.0246885278241293</v>
       </c>
       <c r="F94">
-        <v>0.02940097496032009</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.0002622597736310994</v>
+      </c>
+      <c r="G94">
+        <v>-0.0731797598224655</v>
+      </c>
+      <c r="H94">
+        <v>0.1114068596262711</v>
+      </c>
+      <c r="I94">
+        <v>-0.01323881623497148</v>
+      </c>
+      <c r="J94">
+        <v>-0.02411305868364939</v>
+      </c>
+      <c r="K94">
+        <v>0.01327234220413983</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.1231985418129875</v>
+        <v>0.1354676252722557</v>
       </c>
       <c r="C95">
-        <v>-0.07305507066935776</v>
+        <v>-0.06643036032391048</v>
       </c>
       <c r="D95">
-        <v>0.06944343038475907</v>
+        <v>0.03952820699276772</v>
       </c>
       <c r="E95">
-        <v>-0.06850963986987497</v>
+        <v>0.02684719281066555</v>
       </c>
       <c r="F95">
-        <v>0.0400721806235538</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.06365077211090094</v>
+      </c>
+      <c r="G95">
+        <v>0.03636803716610354</v>
+      </c>
+      <c r="H95">
+        <v>-0.1527119702983022</v>
+      </c>
+      <c r="I95">
+        <v>0.03776086283742247</v>
+      </c>
+      <c r="J95">
+        <v>-0.02356289221507282</v>
+      </c>
+      <c r="K95">
+        <v>0.001034001672251015</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4057,130 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.2516696053000075</v>
+        <v>0.1875116681270798</v>
       </c>
       <c r="C97">
-        <v>0.1436997907721979</v>
+        <v>0.03112861147637643</v>
       </c>
       <c r="D97">
-        <v>0.02992139411738675</v>
+        <v>-0.2717368012915101</v>
       </c>
       <c r="E97">
-        <v>0.891371122371873</v>
+        <v>-0.8978150105828913</v>
       </c>
       <c r="F97">
-        <v>-0.01480312549187055</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>-0.07238217131062438</v>
+      </c>
+      <c r="G97">
+        <v>0.04868624423686831</v>
+      </c>
+      <c r="H97">
+        <v>-0.05052649622619006</v>
+      </c>
+      <c r="I97">
+        <v>0.04208814576988307</v>
+      </c>
+      <c r="J97">
+        <v>0.05673721442771097</v>
+      </c>
+      <c r="K97">
+        <v>0.05542767073263459</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.2903448594699982</v>
+        <v>0.2850976084296894</v>
       </c>
       <c r="C98">
-        <v>-0.04075999209504947</v>
+        <v>-0.09826674202547532</v>
       </c>
       <c r="D98">
-        <v>-0.01482096372952173</v>
+        <v>0.0599461703762637</v>
       </c>
       <c r="E98">
-        <v>-0.08531642006353775</v>
+        <v>0.009866401763837384</v>
       </c>
       <c r="F98">
-        <v>0.528281444249468</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.3153690029401985</v>
+      </c>
+      <c r="G98">
+        <v>-0.2225573495402886</v>
+      </c>
+      <c r="H98">
+        <v>-0.3062293089084953</v>
+      </c>
+      <c r="I98">
+        <v>-0.2821424083451938</v>
+      </c>
+      <c r="J98">
+        <v>0.03485173392421029</v>
+      </c>
+      <c r="K98">
+        <v>-0.6215871142419225</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>-0.2391819678488412</v>
+        <v>0.1530444814604425</v>
       </c>
       <c r="C99">
-        <v>-0.1025889936064489</v>
+        <v>-0.07527690710386015</v>
       </c>
       <c r="D99">
-        <v>-0.9206241951586293</v>
+        <v>-0.7666883622521028</v>
       </c>
       <c r="E99">
-        <v>-0.003484874858686014</v>
+        <v>0.300490068483262</v>
       </c>
       <c r="F99">
-        <v>0.08209924662074609</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>-0.4148758730637191</v>
+      </c>
+      <c r="G99">
+        <v>0.02730027315466675</v>
+      </c>
+      <c r="H99">
+        <v>0.1199559135300018</v>
+      </c>
+      <c r="I99">
+        <v>0.08241325942016157</v>
+      </c>
+      <c r="J99">
+        <v>-0.09473844371290724</v>
+      </c>
+      <c r="K99">
+        <v>0.04439600850163232</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,30 +4197,60 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.05835656233858236</v>
+        <v>0.05468402623710155</v>
       </c>
       <c r="C101">
-        <v>0.001900849253931457</v>
+        <v>-0.01164945594921785</v>
       </c>
       <c r="D101">
-        <v>0.02953933594084661</v>
+        <v>0.02358602144852719</v>
       </c>
       <c r="E101">
-        <v>-0.02419056881422545</v>
+        <v>0.01626275353921312</v>
       </c>
       <c r="F101">
-        <v>-0.02611064186391992</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03472959239448907</v>
+      </c>
+      <c r="G101">
+        <v>0.01526600988091168</v>
+      </c>
+      <c r="H101">
+        <v>0.06320377206886175</v>
+      </c>
+      <c r="I101">
+        <v>0.04843224802810244</v>
+      </c>
+      <c r="J101">
+        <v>-0.01119777651609321</v>
+      </c>
+      <c r="K101">
+        <v>-0.03879495124123682</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2737,10 +4267,25 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4302,25 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4335,21 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
